--- a/artfynd/A 25843-2021.xlsx
+++ b/artfynd/A 25843-2021.xlsx
@@ -1078,14 +1078,14 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97261431</v>
+        <v>94998123</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1126,9 +1126,11 @@
           <t>blomning</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Örbäck, 1 km SO om (knärot)Öst, Vstm</t>
+          <t>Örbäck, Hörendesjön, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -1138,7 +1140,7 @@
         <v>6649884.267793433</v>
       </c>
       <c r="S5" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1160,11 +1162,6 @@
           <t>Karbenning</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>U-Nor-0271</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>2021-07-20</t>
@@ -1185,24 +1182,20 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>X: 3  pl, A: 582/441 3 pl och B: 567/410 2 pl</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Bo Eriksson</t>
+          <t>Zsombor Károlyi</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
@@ -1210,22 +1203,18 @@
           <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97261271</v>
+        <v>94998259</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1253,7 +1242,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1266,9 +1255,11 @@
           <t>blomning</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Örbäck, 1 km SO om (knärot)Väst, Vstm</t>
+          <t>Örbäck, Hörendesjön, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1278,7 +1269,7 @@
         <v>6649889.974165852</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1300,11 +1291,6 @@
           <t>Karbenning</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>U-Nor-0270</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>2021-07-20</t>
@@ -1325,24 +1311,20 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>X. 7pl,A: 475/415 5 pl, B: 477/405 3 pl, C: 457/434 1 pl och D: 459/397 1 pl.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Bo Eriksson</t>
+          <t>Zsombor Károlyi</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
@@ -1350,11 +1332,7 @@
           <t>Zsombor Károlyi, Kristina Hanson, Sven Kihlström</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
